--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -716,7 +716,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_DiagnosticReportCategory_CS</t>
+    <t>http://loinc.org</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -877,7 +877,7 @@
     <t>Value Set：JPCore_DocumentCodeの中から適切な内視鏡分野の報告書のコードを指定する（例：「18751-8」（上部消化管内視鏡報告書））。該当する適切な報告書のコードが登録されていない場合は、「19805-1」（内視鏡検査報告書）を指定する。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_DocumentCodes_Endscope_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_DocumentCodes_Endscopy_VS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1613,7 +1613,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="33.43359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="62.22265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="62.1796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="396">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19</t>
+    <t>2023-05-25</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -298,13 +298,13 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -317,16 +317,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>リソースに関するメタデータ / Metadata about the resource</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -337,13 +337,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -356,19 +356,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>リソースコンテンツの言語 / Language of the resource content</t>
+  </si>
+  <si>
+    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>人間の言語。 / A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -411,13 +411,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>インラインリソースが含まれています / Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -437,33 +437,34 @@
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>DiagnosticReport.modifierExtension</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -518,7 +519,7 @@
     <t>通常、依頼元となるServiceRequestリソースを参照する。他のシステムと連携していない場合は参照不要。</t>
   </si>
   <si>
-    <t>This allows tracing of authorization for the report and tracking whether proposals/recommendations were acted upon.</t>
+    <t>これにより、レポートの許可を追跡し、提案/勧告が行われたかどうかを追跡することができます。 / This allows tracing of authorization for the report and tracking whether proposals/recommendations were acted upon.</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -539,13 +540,13 @@
     <t>「preliminary」（作成中、未確定、未承認）もしくは 「final」（作成完了、確定済、承認済）を指定する。</t>
   </si>
   <si>
-    <t>Diagnostic services routinely issue provisional/incomplete reports, and sometimes withdraw previously released reports.</t>
+    <t>診断サービスは、暫定/不完全なレポートを日常的に発行し、以前にリリースされたレポートを撤回することもあります。 / Diagnostic services routinely issue provisional/incomplete reports, and sometimes withdraw previously released reports.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>The status of the diagnostic report.</t>
+    <t>診断レポートのステータス。 / The status of the diagnostic report.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status|4.0.1</t>
@@ -574,10 +575,7 @@
 </t>
   </si>
   <si>
-    <t>レポートを作成した分野を分類するコード。【詳細参照】</t>
-  </si>
-  <si>
-    <t>レポートを作成した臨床分野・部門、または診断サービス（CT, US, MRIなど）を分類するコード。 これは、検索、並べ替え、および表示の目的で使用される。【JP-Core仕様】放射線レポートは ”RAD” をデフォルトとして設定。追加の情報については任意で設定可能。</t>
+    <t>診断レポートの分野を表すコード。</t>
   </si>
   <si>
     <t>これは、検索、並べ替え、および表示の目的で使用される。</t>
@@ -608,10 +606,13 @@
     <t>endoscopy</t>
   </si>
   <si>
-    <t>診断レポートの分野を表すコード。</t>
-  </si>
-  <si>
-    <t>Value Set：JPCore_DiagnosticReportCategoryの中から「LP7796-8」（Endoscopy（内視鏡））を指定する。</t>
+    <t>サービスカテゴリー。【詳細参照】</t>
+  </si>
+  <si>
+    <t>レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード。</t>
+  </si>
+  <si>
+    <t>JP_DiagnosticReportCategory_VSの中から「LP7796-8」（Endoscopy（内視鏡））を指定する。</t>
   </si>
   <si>
     <t>DiagnosticReport.category:endoscopy.id</t>
@@ -624,10 +625,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -642,7 +643,7 @@
     <t>DiagnosticReport.category.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -665,16 +666,16 @@
 </t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+    <t>用語システムによって定義されたコード / Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>用語システムによって定義されたコードへの参照。 / A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>コードは、列挙されたCTなどの非常に正式な定義まで、列挙またはコードリストで非常にさりげなく定義される場合があります。詳細については、HL7 V3コアプリンシップを参照してください。コーディングの順序付けは未定義であり、意味を推測するために使用されません。一般に、せいぜい、コーディング値の1つのみがuserselected = trueとしてラベル付けされます。 / Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>コードシステム内の代替エンコーディング、および他のコードシステムへの翻訳が可能になります。 / Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -704,16 +705,16 @@
     <t>DiagnosticReport.category.coding.system</t>
   </si>
   <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+    <t>用語システムのアイデンティティ / Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>コード内のシンボルの意味を定義するコードシステムの識別。 / The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>uriは、oid（urn：oid：...）またはuuid（urn：uuid：...）である場合があります。OIDとUUIDは、HL7 OIDレジストリへの参照となります。それ以外の場合、URIは、FHIRの特別なURIを定義したHL7のリストから来るか、システムを明確かつ明確に確立する定義を参照する必要があります。 / The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
     <t>http://loinc.org</t>
@@ -734,13 +735,13 @@
     <t>DiagnosticReport.category.coding.version</t>
   </si>
   <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+    <t>システムのバージョン - 関連する場合 / Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>このコードを選択するときに使用されたコードシステムのバージョン。コードの意味がバージョン全体で一貫しているため、適切にメンテナンスしたコードシステムでは報告されたバージョンを必要としないことに注意してください。ただし、これは一貫して保証することはできず、意味が一貫していることが保証されていない場合、バージョンを交換する必要があります。 / The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>用語がコードシステムバージョンを識別するために使用する文字列を明確に定義していない場合、推奨は、そのバージョンがバージョンの日付として公式に公開された日付（FHIR日付形式で表現）を使用することです。 / Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
   </si>
   <si>
     <t>Coding.version</t>
@@ -758,13 +759,13 @@
     <t>DiagnosticReport.category.coding.code</t>
   </si>
   <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
+    <t>システムによって定義された構文のシンボル / Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>システムによって定義された構文のシンボル。シンボルは、定義されたコードまたはコーディングシステムによって定義された構文の式（例：調整後）である場合があります。 / A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
   </si>
   <si>
     <t>LP7796-8</t>
@@ -785,13 +786,13 @@
     <t>DiagnosticReport.category.coding.display</t>
   </si>
   <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+    <t>システムによって定義された表現 / Representation defined by the system</t>
+  </si>
+  <si>
+    <t>システムのルールに従って、システム内のコードの意味の表現。 / A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>システムを知らない読者のために、コードの人間の読み取り可能な意味を持ち込むことができる必要があります。 / Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
     <t>内視鏡</t>
@@ -816,16 +817,16 @@
 </t>
   </si>
   <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+    <t>このコーディングがユーザーによって直接選択された場合 / If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>このコーディングがユーザーによって直接選択されたことを示します。利用可能なアイテムのピックリスト（コードまたはディスプレイ）。 / Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>一連の代替案の中で、直接選択されたコードが新しい翻訳の最も適切な出発点です。この要素の使用とその結果をより完全に明確にするためには、「直接選択された」ことについては曖昧さがあり、取引パートナー契約が必要になる場合があります。 / Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>これは、臨床安全基準として特定されています - この正確なシステム/コードペアは、いくつかのルールまたは言語処理に基づいてシステムによって推測されるのではなく、明示的に選択されたことです。 / This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
   </si>
   <si>
     <t>Coding.userSelected</t>
@@ -843,16 +844,16 @@
     <t>DiagnosticReport.category.text</t>
   </si>
   <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+    <t>コンセプトの単純なテキスト表現 / Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>データを入力したユーザー、および/またはユーザーの意図された意味を表すユーザーによって見られる/選択/発言された概念の人間の言語表現。 / A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>多くの場合、テキストはコーディングの1つの表示名と同じです。 / Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>用語からのコードは、それらを使用する人間のすべてのニュアンスを使用して、常に正しい意味をキャプチャするとは限りません。または、適切なコードがまったくない場合があります。これらの場合、テキストはソースの完全な意味をキャプチャするために使用されます。 / The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -874,10 +875,10 @@
     <t>内視鏡分野の診断レポートを分類するためのコード。</t>
   </si>
   <si>
-    <t>Value Set：JPCore_DocumentCodeの中から適切な内視鏡分野の報告書のコードを指定する（例：「18751-8」（上部消化管内視鏡報告書））。該当する適切な報告書のコードが登録されていない場合は、「19805-1」（内視鏡検査報告書）を指定する。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_DocumentCodes_Endscopy_VS</t>
+    <t>JP_DocumentCodes_Endoscopy_VSの中から適切な内視鏡分野の報告書のコードを指定する（例：「18751-8」（上部消化管内視鏡報告書））。該当する適切な報告書のコードが登録されていない場合は、「19805-1」（内視鏡検査報告書）を指定する。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_DocumentCodes_Endoscopy_VS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -909,7 +910,7 @@
     <t>JP Core Patientリソースを参照する。</t>
   </si>
   <si>
-    <t>SHALL know the subject context.</t>
+    <t>主題のコンテキストを知っておく必要があります。 / SHALL know the subject context.</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -941,7 +942,7 @@
     <t>JP Core Encounterリソースを参照する。</t>
   </si>
   <si>
-    <t>Links the request to the Encounter context.</t>
+    <t>リクエストをエンカウンターコンテキストにリンクします。 / Links the request to the Encounter context.</t>
   </si>
   <si>
     <t>Event.encounter</t>
@@ -973,7 +974,7 @@
     <t>DateTimeを採用する。</t>
   </si>
   <si>
-    <t>Need to know where in the patient history to file/present this report.</t>
+    <t>このレポートを提出/提示するために、患者履歴のどこにあるかを知る必要があります。 / Need to know where in the patient history to file/present this report.</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -1005,7 +1006,7 @@
     <t>StatusがFinalになった日時を指定する。</t>
   </si>
   <si>
-    <t>Clinicians need to be able to check the date that the report was released.</t>
+    <t>臨床医は、報告書が発表された日付を確認できる必要があります。 / Clinicians need to be able to check the date that the report was released.</t>
   </si>
   <si>
     <t>OBR-22</t>
@@ -1034,7 +1035,7 @@
     <t>JP Core Practitionerリソースを参照する。</t>
   </si>
   <si>
-    <t>Need to know whom to contact if there are queries about the results. Also may need to track the source of reports for secondary data analysis.</t>
+    <t>結果についてクエリがある場合は、誰に連絡するかを知る必要があります。また、二次データ分析のためにレポートのソースを追跡する必要がある場合があります。 / Need to know whom to contact if there are queries about the results. Also may need to track the source of reports for secondary data analysis.</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -1082,7 +1083,7 @@
     <t>内視鏡では省略してよい。</t>
   </si>
   <si>
-    <t>Need to be able to report information about the collected specimens on which the report is based.</t>
+    <t>レポートの基礎となる収集された標本に関する情報を報告できる必要があります。 / Need to be able to report information about the collected specimens on which the report is based.</t>
   </si>
   <si>
     <t>SPM</t>
@@ -1163,10 +1164,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -1179,7 +1181,7 @@
     <t>メディアに関するコメント。</t>
   </si>
   <si>
-    <t>The provider of the report should make a comment about each image included in the report.</t>
+    <t>レポートのプロバイダーは、レポートに含まれる各画像についてコメントする必要があります。 / The provider of the report should make a comment about each image included in the report.</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="annotation"].value</t>
@@ -1188,14 +1190,11 @@
     <t>DiagnosticReport.media.link</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Media_Endoscopy)
+    <t xml:space="preserve">Reference(Media)
 </t>
   </si>
   <si>
     <t>メディアの参照先。</t>
-  </si>
-  <si>
-    <t>JP Core Media Endoscopyリソースを参照する。</t>
   </si>
   <si>
     <t>.value.reference</t>
@@ -1214,7 +1213,7 @@
     <t>テキストで可能な限り記載する。</t>
   </si>
   <si>
-    <t>Need to be able to provide a conclusion that is not lost among the basic result data.</t>
+    <t>基本的な結果データの中で失われない結論を提供できる必要があります。 / Need to be able to provide a conclusion that is not lost among the basic result data.</t>
   </si>
   <si>
     <t>OBX</t>
@@ -1254,7 +1253,7 @@
     <t>診断レポート本体をPDF形式やxml形式などで添付する（フォーマットは不問）。</t>
   </si>
   <si>
-    <t>Gives laboratory the ability to provide its own fully formatted report for clinical fidelity.</t>
+    <t>実験室に、臨床忠実度のために独自の完全にフォーマットされたレポートを提供する能力を提供します。 / Gives laboratory the ability to provide its own fully formatted report for clinical fidelity.</t>
   </si>
   <si>
     <t>text (type=ED)</t>
@@ -1612,8 +1611,8 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="33.43359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="62.1796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="49.51953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.30078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -3159,10 +3158,10 @@
         <v>178</v>
       </c>
       <c r="M14" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3192,20 +3191,20 @@
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB14" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>175</v>
@@ -3226,24 +3225,24 @@
         <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>186</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>176</v>
@@ -3268,7 +3267,7 @@
         <v>177</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>189</v>
@@ -3304,7 +3303,7 @@
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>81</v>
@@ -3340,13 +3339,13 @@
         <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>186</v>
       </c>
     </row>
     <row r="16" hidden="true">
@@ -3545,7 +3544,7 @@
         <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>203</v>
@@ -3887,7 +3886,7 @@
         <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>203</v>
@@ -6371,9 +6370,7 @@
       <c r="M42" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="N42" t="s" s="2">
-        <v>376</v>
-      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -6443,7 +6440,7 @@
         <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6451,14 +6448,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6480,16 +6477,16 @@
         <v>193</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M43" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -6538,7 +6535,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6556,10 +6553,10 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6567,10 +6564,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6596,13 +6593,13 @@
         <v>177</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6628,11 +6625,11 @@
         <v>81</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>81</v>
@@ -6650,7 +6647,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6668,10 +6665,10 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -6679,10 +6676,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6705,19 +6702,19 @@
         <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -6766,7 +6763,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6784,10 +6781,10 @@
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -1234,7 +1234,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ConclusionCodeJed_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ConclusionCodesJed_VS</t>
   </si>
   <si>
     <t>inboundRelationship[typeCode=SPRT].source[classCode=OBS, moodCode=EVN, code=LOINC:54531-9].value (type=CD)</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -3299,7 +3299,7 @@
         <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
@@ -3963,10 +3963,10 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>224</v>
+        <v>81</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>81</v>
@@ -4191,10 +4191,10 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>81</v>
+        <v>241</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>241</v>
+        <v>81</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>81</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="397">
   <si>
     <t>Property</t>
   </si>
@@ -876,6 +876,9 @@
   </si>
   <si>
     <t>JP_DocumentCodes_Endoscopy_VSの中から適切な内視鏡分野の報告書のコードを指定する（例：「18751-8」（上部消化管内視鏡報告書））。該当する適切な報告書のコードが登録されていない場合は、「19805-1」（内視鏡検査報告書）を指定する。</t>
+  </si>
+  <si>
+    <t>extensible</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_DocumentCodes_Endoscopy_VS</t>
@@ -4669,11 +4672,11 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>168</v>
+        <v>277</v>
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
@@ -4706,28 +4709,28 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4746,19 +4749,19 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -4807,7 +4810,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4822,28 +4825,28 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4862,19 +4865,19 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>81</v>
@@ -4923,7 +4926,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4938,28 +4941,28 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4978,19 +4981,19 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>81</v>
@@ -5039,7 +5042,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5054,28 +5057,28 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5094,19 +5097,19 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5155,7 +5158,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5173,25 +5176,25 @@
         <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5210,19 +5213,19 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -5271,7 +5274,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5286,28 +5289,28 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5326,19 +5329,19 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -5387,7 +5390,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5402,24 +5405,24 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5442,19 +5445,19 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -5503,7 +5506,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5521,10 +5524,10 @@
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5532,14 +5535,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5558,19 +5561,19 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -5619,7 +5622,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5637,10 +5640,10 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -5648,10 +5651,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5674,16 +5677,16 @@
         <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5733,7 +5736,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5754,7 +5757,7 @@
         <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -5762,14 +5765,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5788,19 +5791,19 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -5849,7 +5852,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5867,10 +5870,10 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -5878,10 +5881,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5990,10 +5993,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6104,14 +6107,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6133,10 +6136,10 @@
         <v>134</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>137</v>
@@ -6191,7 +6194,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6220,10 +6223,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6249,16 +6252,16 @@
         <v>193</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6307,7 +6310,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6328,7 +6331,7 @@
         <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6336,10 +6339,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6362,13 +6365,13 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6419,7 +6422,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>89</v>
@@ -6440,7 +6443,7 @@
         <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6448,14 +6451,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6477,16 +6480,16 @@
         <v>193</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -6535,7 +6538,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6553,10 +6556,10 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6564,10 +6567,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6593,13 +6596,13 @@
         <v>177</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6625,11 +6628,11 @@
         <v>81</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>81</v>
@@ -6647,7 +6650,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6665,10 +6668,10 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -6676,10 +6679,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6702,19 +6705,19 @@
         <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -6763,7 +6766,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6781,10 +6784,10 @@
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -606,10 +606,10 @@
     <t>endoscopy</t>
   </si>
   <si>
-    <t>サービスカテゴリー。【詳細参照】</t>
-  </si>
-  <si>
-    <t>レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード。</t>
+    <t>診断レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード。【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード。</t>
   </si>
   <si>
     <t>JP_DiagnosticReportCategory_VSの中から「LP7796-8」（Endoscopy（内視鏡））を指定する。</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="415">
   <si>
     <t>Property</t>
   </si>
@@ -386,6 +386,9 @@
   <si>
     <t xml:space="preserve">Narrative
 </t>
+  </si>
+  <si>
+    <t>主にレポートの見読性と検索性の向上を目的に、所見を中心としたhuman-readableなnarrativeデータを格納することを推奨する。【詳細参照】</t>
   </si>
   <si>
     <t>主にレポートの見読性と検索性の向上を目的に、所見を中心としたhuman-readableなnarrativeデータを格納することを推奨する。</t>
@@ -513,6 +516,9 @@
 </t>
   </si>
   <si>
+    <t>他のシステムから依頼されたオーダ情報。【詳細参照】</t>
+  </si>
+  <si>
     <t>他のシステムから依頼されたオーダ情報。</t>
   </si>
   <si>
@@ -532,6 +538,9 @@
   </si>
   <si>
     <t>DiagnosticReport.status</t>
+  </si>
+  <si>
+    <t>診断レポートのステータス。【詳細参照】</t>
   </si>
   <si>
     <t>診断レポートのステータス。</t>
@@ -606,7 +615,7 @@
     <t>endoscopy</t>
   </si>
   <si>
-    <t>診断レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード。【詳細参照】</t>
+    <t>診断レポートの分野を表すコード。【詳細参照】</t>
   </si>
   <si>
     <t>診断レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード。</t>
@@ -872,6 +881,9 @@
 </t>
   </si>
   <si>
+    <t>内視鏡分野の診断レポートを分類するためのコード。【詳細参照】</t>
+  </si>
+  <si>
     <t>内視鏡分野の診断レポートを分類するためのコード。</t>
   </si>
   <si>
@@ -907,6 +919,9 @@
 </t>
   </si>
   <si>
+    <t>診断レポートの対象患者に関する情報。【詳細参照】</t>
+  </si>
+  <si>
     <t>診断レポートの対象患者に関する情報。</t>
   </si>
   <si>
@@ -939,6 +954,9 @@
 </t>
   </si>
   <si>
+    <t>この診断レポートを書くきっかけとなった情報。【詳細参照】</t>
+  </si>
+  <si>
     <t>この診断レポートを書くきっかけとなった情報。</t>
   </si>
   <si>
@@ -971,6 +989,9 @@
 </t>
   </si>
   <si>
+    <t>診断レポートの作成日時。【詳細参照】</t>
+  </si>
+  <si>
     <t>診断レポートの作成日時。</t>
   </si>
   <si>
@@ -1003,6 +1024,9 @@
 </t>
   </si>
   <si>
+    <t>レポート確定日時。【詳細参照】</t>
+  </si>
+  <si>
     <t>レポート確定日時。</t>
   </si>
   <si>
@@ -1032,6 +1056,9 @@
 </t>
   </si>
   <si>
+    <t>内視鏡検査、治療を実施した医師。【詳細参照】</t>
+  </si>
+  <si>
     <t>内視鏡検査、治療を実施した医師。</t>
   </si>
   <si>
@@ -1064,6 +1091,9 @@
 </t>
   </si>
   <si>
+    <t>通常、この診断レポートの確定者。【詳細参照】</t>
+  </si>
+  <si>
     <t>通常、この診断レポートの確定者。</t>
   </si>
   <si>
@@ -1080,6 +1110,9 @@
 </t>
   </si>
   <si>
+    <t>この診断レポートの検体に関する情報。【詳細参照】</t>
+  </si>
+  <si>
     <t>この診断レポートの検体に関する情報。</t>
   </si>
   <si>
@@ -1103,6 +1136,9 @@
 </t>
   </si>
   <si>
+    <t>この診断レポートの一部となるObservationに関する情報。【詳細参照】</t>
+  </si>
+  <si>
     <t>この診断レポートの一部となるObservationに関する情報。</t>
   </si>
   <si>
@@ -1122,6 +1158,9 @@
 </t>
   </si>
   <si>
+    <t>診断レポートに関連づけれられたDICOM画像検査に関する情報。【詳細参照】</t>
+  </si>
+  <si>
     <t>診断レポートに関連づけれられたDICOM画像検査に関する情報。</t>
   </si>
   <si>
@@ -1140,6 +1179,9 @@
   <si>
     <t xml:space="preserve">BackboneElement
 </t>
+  </si>
+  <si>
+    <t>診断レポートに関連づけられたメディアに関する情報。【詳細参照】</t>
   </si>
   <si>
     <t>診断レポートに関連づけられたメディアに関する情報。</t>
@@ -1181,6 +1223,9 @@
     <t>DiagnosticReport.media.comment</t>
   </si>
   <si>
+    <t>メディアに関するコメント。【詳細参照】</t>
+  </si>
+  <si>
     <t>メディアに関するコメント。</t>
   </si>
   <si>
@@ -1210,6 +1255,9 @@
 </t>
   </si>
   <si>
+    <t>総合診断に相当する要約結論。【詳細参照】</t>
+  </si>
+  <si>
     <t>総合診断に相当する要約結論。</t>
   </si>
   <si>
@@ -1226,6 +1274,9 @@
   </si>
   <si>
     <t>DiagnosticReport.conclusionCode</t>
+  </si>
+  <si>
+    <t>内視鏡診断レポートの要約結論を表す1つ以上のコード。【詳細参照】</t>
   </si>
   <si>
     <t>内視鏡診断レポートの要約結論を表す1つ以上のコード。</t>
@@ -1248,6 +1299,9 @@
   <si>
     <t xml:space="preserve">Attachment
 </t>
+  </si>
+  <si>
+    <t>診断レポート本体。【詳細参照】</t>
   </si>
   <si>
     <t>診断レポート本体。</t>
@@ -2355,10 +2409,10 @@
         <v>120</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2408,7 +2462,7 @@
         <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
@@ -2429,7 +2483,7 @@
         <v>81</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>81</v>
@@ -2437,14 +2491,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2463,16 +2517,16 @@
         <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2522,7 +2576,7 @@
         <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -2543,7 +2597,7 @@
         <v>81</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>81</v>
@@ -2551,14 +2605,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2577,16 +2631,16 @@
         <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2636,7 +2690,7 @@
         <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -2648,7 +2702,7 @@
         <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>81</v>
@@ -2657,7 +2711,7 @@
         <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>81</v>
@@ -2665,14 +2719,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2691,19 +2745,19 @@
         <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>81</v>
@@ -2752,7 +2806,7 @@
         <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2764,7 +2818,7 @@
         <v>81</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>81</v>
@@ -2773,7 +2827,7 @@
         <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>81</v>
@@ -2781,14 +2835,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2807,19 +2861,19 @@
         <v>90</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>81</v>
@@ -2868,7 +2922,7 @@
         <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2883,28 +2937,28 @@
         <v>101</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2923,19 +2977,19 @@
         <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>81</v>
@@ -2984,7 +3038,7 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -2999,13 +3053,13 @@
         <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>81</v>
@@ -3013,10 +3067,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3042,16 +3096,16 @@
         <v>109</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>81</v>
@@ -3076,13 +3130,13 @@
         <v>81</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>81</v>
@@ -3100,7 +3154,7 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>89</v>
@@ -3115,28 +3169,28 @@
         <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3155,16 +3209,16 @@
         <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3194,23 +3248,23 @@
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3228,27 +3282,27 @@
         <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3267,16 +3321,16 @@
         <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3302,11 +3356,11 @@
         <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>81</v>
@@ -3324,7 +3378,7 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3342,21 +3396,21 @@
         <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3379,13 +3433,13 @@
         <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3436,7 +3490,7 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3457,7 +3511,7 @@
         <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>81</v>
@@ -3465,14 +3519,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3491,16 +3545,16 @@
         <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3538,19 +3592,19 @@
         <v>81</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3562,7 +3616,7 @@
         <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>81</v>
@@ -3571,7 +3625,7 @@
         <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
@@ -3579,10 +3633,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3605,19 +3659,19 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>81</v>
@@ -3666,7 +3720,7 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3684,10 +3738,10 @@
         <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>81</v>
@@ -3695,10 +3749,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3721,13 +3775,13 @@
         <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3778,7 +3832,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3799,7 +3853,7 @@
         <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -3807,14 +3861,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3833,16 +3887,16 @@
         <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3880,19 +3934,19 @@
         <v>81</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3904,7 +3958,7 @@
         <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>81</v>
@@ -3913,7 +3967,7 @@
         <v>81</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>81</v>
@@ -3921,10 +3975,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3950,23 +4004,23 @@
         <v>103</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>81</v>
@@ -4008,7 +4062,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4026,10 +4080,10 @@
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>81</v>
@@ -4037,10 +4091,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4063,16 +4117,16 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4122,7 +4176,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4140,10 +4194,10 @@
         <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>81</v>
@@ -4151,10 +4205,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4180,21 +4234,21 @@
         <v>109</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>81</v>
@@ -4236,7 +4290,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4254,10 +4308,10 @@
         <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
@@ -4265,10 +4319,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4291,17 +4345,17 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -4311,7 +4365,7 @@
         <v>81</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>81</v>
@@ -4350,7 +4404,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4368,10 +4422,10 @@
         <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
@@ -4379,10 +4433,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4405,19 +4459,19 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -4466,7 +4520,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4484,10 +4538,10 @@
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
@@ -4495,10 +4549,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4521,19 +4575,19 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -4582,7 +4636,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4600,10 +4654,10 @@
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
@@ -4611,14 +4665,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4637,16 +4691,16 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4672,11 +4726,11 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
@@ -4694,7 +4748,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>89</v>
@@ -4709,28 +4763,28 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4749,19 +4803,19 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -4810,7 +4864,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4825,28 +4879,28 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4865,19 +4919,19 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>81</v>
@@ -4926,7 +4980,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4941,28 +4995,28 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4981,19 +5035,19 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>81</v>
@@ -5042,7 +5096,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5057,28 +5111,28 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5097,19 +5151,19 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5158,7 +5212,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5176,25 +5230,25 @@
         <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5213,19 +5267,19 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -5274,7 +5328,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5289,28 +5343,28 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5329,19 +5383,19 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="N33" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="O33" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -5390,7 +5444,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5405,24 +5459,24 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5445,19 +5499,19 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -5506,7 +5560,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5524,10 +5578,10 @@
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5535,14 +5589,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5561,19 +5615,19 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -5622,7 +5676,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5640,10 +5694,10 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -5651,10 +5705,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5677,16 +5731,16 @@
         <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5736,7 +5790,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5757,7 +5811,7 @@
         <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -5765,14 +5819,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5791,19 +5845,19 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -5852,7 +5906,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5870,10 +5924,10 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -5881,10 +5935,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5907,13 +5961,13 @@
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5964,7 +6018,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -5985,7 +6039,7 @@
         <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -5993,14 +6047,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6019,16 +6073,16 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6078,7 +6132,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6090,7 +6144,7 @@
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>81</v>
@@ -6099,7 +6153,7 @@
         <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6107,14 +6161,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6133,19 +6187,19 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6194,7 +6248,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6206,7 +6260,7 @@
         <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>81</v>
@@ -6215,7 +6269,7 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6223,10 +6277,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6249,19 +6303,19 @@
         <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6310,7 +6364,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6331,7 +6385,7 @@
         <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6339,10 +6393,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6365,13 +6419,13 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6422,7 +6476,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>89</v>
@@ -6443,7 +6497,7 @@
         <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6451,14 +6505,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6477,19 +6531,19 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -6538,7 +6592,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6556,10 +6610,10 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6567,10 +6621,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6593,16 +6647,16 @@
         <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6628,11 +6682,11 @@
         <v>81</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>81</v>
@@ -6650,7 +6704,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6668,10 +6722,10 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -6679,10 +6733,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6705,19 +6759,19 @@
         <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -6766,7 +6820,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6784,10 +6838,10 @@
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -4216,7 +4216,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>89</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -618,7 +618,7 @@
     <t>診断レポートの分野を表すコード。【詳細参照】</t>
   </si>
   <si>
-    <t>診断レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード。</t>
+    <t>診断レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード</t>
   </si>
   <si>
     <t>JP_DiagnosticReportCategory_VSの中から「LP7796-8」（Endoscopy（内視鏡））を指定する。</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -1136,10 +1136,10 @@
 </t>
   </si>
   <si>
-    <t>この診断レポートの一部となるObservationに関する情報。【詳細参照】</t>
-  </si>
-  <si>
     <t>この診断レポートの一部となるObservationに関する情報。</t>
+  </si>
+  <si>
+    <t>Observationsは階層構造を持てる。</t>
   </si>
   <si>
     <t>個々の結果または結果のグループをサポートする必要がある。結果のグループ化は任意だが、意味がある場合にグループ化される。</t>
@@ -5621,10 +5621,10 @@
         <v>358</v>
       </c>
       <c r="M35" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>360</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$44</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="375">
   <si>
     <t>Property</t>
   </si>
@@ -130,126 +130,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Workflow Pattern</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t>Report
@@ -1435,10 +1315,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1635,7 +1515,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN45"/>
+  <dimension ref="A1:AN44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1646,13 +1526,12 @@
   <cols>
     <col min="1" max="1" width="55.33984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.8125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="10.953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="62.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="207.65625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1660,5195 +1539,5073 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="49.51953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="63.30078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="21.17578125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="21.421875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="171.66796875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="121.93359375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="16.3984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="M1" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="N1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="AM1" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="K1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>76</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>77</v>
+      <c r="AN1" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>66</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H6" t="s" s="2">
+      <c r="L6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="I6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="N6" t="s" s="2">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>121</v>
-      </c>
       <c r="N7" t="s" s="2">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O9" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O9" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="P9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>155</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>158</v>
+        <v>69</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="AC13" s="2"/>
       <c r="AD13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>177</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="D14" t="s" s="2">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AC14" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AD14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>185</v>
+        <v>41</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>188</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y15" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Z15" t="s" s="2">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>186</v>
+        <v>41</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>188</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>196</v>
+        <v>95</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>197</v>
+        <v>96</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="P17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>204</v>
+        <v>41</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>205</v>
+        <v>41</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>185</v>
+        <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>209</v>
+        <v>156</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>210</v>
+        <v>157</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>216</v>
+        <v>160</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>196</v>
+        <v>95</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
+        <v>96</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>136</v>
+        <v>183</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="P20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>204</v>
+        <v>41</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>205</v>
+        <v>41</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>185</v>
+        <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>227</v>
+        <v>41</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>196</v>
+        <v>69</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="P22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>81</v>
+        <v>204</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>244</v>
+        <v>41</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>253</v>
+        <v>41</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>259</v>
+        <v>156</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>196</v>
+        <v>140</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>81</v>
+        <v>243</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>81</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>180</v>
+        <v>249</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="P27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="Y27" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Z27" t="s" s="2">
-        <v>282</v>
+        <v>41</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>286</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>297</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>308</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>316</v>
+        <v>41</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>319</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>81</v>
+        <v>297</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>329</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>340</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>342</v>
+        <v>41</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>337</v>
+        <v>41</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>339</v>
+        <v>256</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>340</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>81</v>
+        <v>316</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>356</v>
+        <v>41</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>361</v>
+        <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>81</v>
+        <v>330</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="P36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>81</v>
+        <v>336</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>368</v>
+        <v>322</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>370</v>
+        <v>41</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>371</v>
+        <v>156</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>372</v>
+        <v>157</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>369</v>
+        <v>159</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>376</v>
+        <v>41</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>362</v>
+        <v>160</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>196</v>
+        <v>95</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>197</v>
+        <v>96</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>134</v>
+        <v>340</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>136</v>
+        <v>341</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>203</v>
+        <v>342</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="P39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>206</v>
+        <v>343</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>200</v>
+        <v>92</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>380</v>
+        <v>41</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>138</v>
+        <v>312</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>144</v>
+        <v>347</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>132</v>
+        <v>348</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>196</v>
+        <v>350</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>81</v>
+        <v>354</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>390</v>
+        <v>156</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="P42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>81</v>
+        <v>359</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>394</v>
+        <v>41</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>196</v>
+        <v>140</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>395</v>
+        <v>362</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>81</v>
+        <v>366</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>400</v>
+        <v>367</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>401</v>
+        <v>368</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>401</v>
+        <v>368</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>180</v>
+        <v>369</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="P44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="Y44" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Z44" t="s" s="2">
-        <v>406</v>
+        <v>41</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>401</v>
+        <v>368</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" hidden="true">
-      <c r="A45" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="P45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q45" s="2"/>
-      <c r="R45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN45">
+  <autoFilter ref="A1:AN44">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6858,7 +6615,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI44">
+  <conditionalFormatting sqref="A2:AI43">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$45</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="415">
   <si>
     <t>Property</t>
   </si>
@@ -130,6 +130,126 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: Workflow Pattern</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t>Report
@@ -1315,10 +1435,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1515,7 +1635,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN44"/>
+  <dimension ref="A1:AN45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1526,12 +1646,13 @@
   <cols>
     <col min="1" max="1" width="55.33984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.8125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="62.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="207.65625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1539,5073 +1660,5195 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="49.51953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="63.30078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="21.17578125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="21.421875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="171.66796875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="121.93359375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="I1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="M1" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="N1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AM1" t="s" s="2">
+      <c r="J1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="AN1" t="s" s="2">
-        <v>41</v>
+      <c r="K1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>77</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>66</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>41</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y13" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="Z13" t="s" s="2">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AC13" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>148</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>148</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="D15" t="s" s="2">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>41</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>95</v>
+        <v>196</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>96</v>
+        <v>197</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>41</v>
+        <v>205</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="P18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>160</v>
+        <v>216</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>95</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>96</v>
+        <v>197</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>187</v>
+        <v>81</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>41</v>
+        <v>205</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="P21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>41</v>
+        <v>227</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>69</v>
+        <v>196</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>204</v>
+        <v>81</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>41</v>
+        <v>244</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>213</v>
+        <v>81</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>156</v>
+        <v>259</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="P26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="Y26" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z26" t="s" s="2">
-        <v>242</v>
+        <v>81</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>243</v>
+        <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>246</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>249</v>
+        <v>180</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>41</v>
+        <v>282</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>257</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>268</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>279</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>41</v>
+        <v>316</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>289</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>297</v>
+        <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>300</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>300</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>41</v>
+        <v>342</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>41</v>
+        <v>337</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>256</v>
+        <v>339</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>41</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>316</v>
+        <v>81</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>41</v>
+        <v>356</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="P35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>41</v>
+        <v>361</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>330</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>336</v>
+        <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>322</v>
+        <v>368</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>41</v>
+        <v>370</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>156</v>
+        <v>371</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>157</v>
+        <v>372</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="P37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>159</v>
+        <v>369</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>41</v>
+        <v>376</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>160</v>
+        <v>362</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>95</v>
+        <v>196</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>96</v>
+        <v>197</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>340</v>
+        <v>134</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>341</v>
+        <v>136</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>342</v>
+        <v>203</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>343</v>
+        <v>206</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>92</v>
+        <v>200</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>41</v>
+        <v>380</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>312</v>
+        <v>138</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>347</v>
+        <v>144</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>348</v>
+        <v>132</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>350</v>
+        <v>196</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="P41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>354</v>
+        <v>81</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>156</v>
+        <v>390</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>359</v>
+        <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>360</v>
+        <v>392</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>41</v>
+        <v>394</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="P43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="Y43" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z43" t="s" s="2">
-        <v>366</v>
+        <v>81</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>369</v>
+        <v>180</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>370</v>
+        <v>402</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>41</v>
+        <v>406</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>374</v>
+        <v>407</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="P45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN44">
+  <autoFilter ref="A1:AN45">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6615,7 +6858,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI43">
+  <conditionalFormatting sqref="A2:AI44">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-25</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -726,7 +726,7 @@
     <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://loinc.org</t>
+    <t>http://loinc.dummy.org</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -726,7 +726,7 @@
     <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://loinc.dummy.org</t>
+    <t>http://loinc.org</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="376">
   <si>
     <t>Property</t>
   </si>
@@ -154,6 +154,10 @@
   <si>
     <t>これは単一のレポートをキャプチャすることを目的としており、複数のレポートをカバーする要約情報の表示に使用するのには適していない。たとえば、このリソースは、検査結果の累積レポート形式やシーケンスの詳細な構造化レポート用に作られていない。
 【JP Core仕様】DiagnosticReportリソースの共通プロフィール</t>
+  </si>
+  <si>
+    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1663,16 +1667,16 @@
         <v>41</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>41</v>
@@ -1680,10 +1684,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1694,7 +1698,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>41</v>
@@ -1703,19 +1707,19 @@
         <v>41</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1765,13 +1769,13 @@
         <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>41</v>
@@ -1794,10 +1798,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1808,7 +1812,7 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>41</v>
@@ -1817,16 +1821,16 @@
         <v>41</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1877,19 +1881,19 @@
         <v>41</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>41</v>
@@ -1906,10 +1910,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1920,28 +1924,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1991,19 +1995,19 @@
         <v>41</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>41</v>
@@ -2020,10 +2024,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2034,7 +2038,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>41</v>
@@ -2046,16 +2050,16 @@
         <v>41</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2081,13 +2085,13 @@
         <v>41</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>41</v>
@@ -2105,19 +2109,19 @@
         <v>41</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>41</v>
@@ -2134,21 +2138,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>41</v>
@@ -2160,16 +2164,16 @@
         <v>41</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2219,19 +2223,19 @@
         <v>41</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>41</v>
@@ -2240,7 +2244,7 @@
         <v>41</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>41</v>
@@ -2248,14 +2252,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2274,16 +2278,16 @@
         <v>41</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2333,7 +2337,7 @@
         <v>41</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2354,7 +2358,7 @@
         <v>41</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>41</v>
@@ -2362,14 +2366,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2388,16 +2392,16 @@
         <v>41</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2447,7 +2451,7 @@
         <v>41</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2459,7 +2463,7 @@
         <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>41</v>
@@ -2468,7 +2472,7 @@
         <v>41</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>41</v>
@@ -2476,14 +2480,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2496,25 +2500,25 @@
         <v>41</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>41</v>
@@ -2563,7 +2567,7 @@
         <v>41</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2575,7 +2579,7 @@
         <v>41</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>41</v>
@@ -2584,7 +2588,7 @@
         <v>41</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>41</v>
@@ -2592,14 +2596,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2615,22 +2619,22 @@
         <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>41</v>
@@ -2679,7 +2683,7 @@
         <v>41</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -2691,31 +2695,31 @@
         <v>41</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2734,19 +2738,19 @@
         <v>41</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>41</v>
@@ -2795,7 +2799,7 @@
         <v>41</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -2807,16 +2811,16 @@
         <v>41</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>41</v>
@@ -2824,10 +2828,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2835,34 +2839,34 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>41</v>
@@ -2887,13 +2891,13 @@
         <v>41</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>41</v>
@@ -2911,71 +2915,71 @@
         <v>41</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3001,27 +3005,27 @@
         <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
@@ -3033,40 +3037,40 @@
         <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>41</v>
@@ -3075,19 +3079,19 @@
         <v>41</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3113,11 +3117,11 @@
         <v>41</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>41</v>
@@ -3135,7 +3139,7 @@
         <v>41</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -3147,27 +3151,27 @@
         <v>41</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3178,7 +3182,7 @@
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>41</v>
@@ -3190,13 +3194,13 @@
         <v>41</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3247,13 +3251,13 @@
         <v>41</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>41</v>
@@ -3268,7 +3272,7 @@
         <v>41</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>41</v>
@@ -3276,14 +3280,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3302,16 +3306,16 @@
         <v>41</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3349,19 +3353,19 @@
         <v>41</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -3373,7 +3377,7 @@
         <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>41</v>
@@ -3382,7 +3386,7 @@
         <v>41</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>41</v>
@@ -3390,10 +3394,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3413,22 +3417,22 @@
         <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>41</v>
@@ -3477,7 +3481,7 @@
         <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -3489,16 +3493,16 @@
         <v>41</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>41</v>
@@ -3506,10 +3510,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3520,7 +3524,7 @@
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>41</v>
@@ -3532,13 +3536,13 @@
         <v>41</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3589,13 +3593,13 @@
         <v>41</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>41</v>
@@ -3610,7 +3614,7 @@
         <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>41</v>
@@ -3618,14 +3622,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3644,16 +3648,16 @@
         <v>41</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3691,19 +3695,19 @@
         <v>41</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -3715,7 +3719,7 @@
         <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>41</v>
@@ -3724,7 +3728,7 @@
         <v>41</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>41</v>
@@ -3732,10 +3736,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3743,10 +3747,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>41</v>
@@ -3755,29 +3759,29 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>41</v>
@@ -3819,28 +3823,28 @@
         <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>41</v>
@@ -3848,10 +3852,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3862,7 +3866,7 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>41</v>
@@ -3871,19 +3875,19 @@
         <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3933,28 +3937,28 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>41</v>
@@ -3962,10 +3966,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3973,10 +3977,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>41</v>
@@ -3985,27 +3989,27 @@
         <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>41</v>
@@ -4047,28 +4051,28 @@
         <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>41</v>
@@ -4076,10 +4080,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4090,7 +4094,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>41</v>
@@ -4099,20 +4103,20 @@
         <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
@@ -4122,7 +4126,7 @@
         <v>41</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>41</v>
@@ -4161,28 +4165,28 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>41</v>
@@ -4190,10 +4194,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4204,7 +4208,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>41</v>
@@ -4213,22 +4217,22 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>41</v>
@@ -4277,28 +4281,28 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>41</v>
@@ -4306,10 +4310,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4320,7 +4324,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>41</v>
@@ -4329,22 +4333,22 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>41</v>
@@ -4393,28 +4397,28 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>41</v>
@@ -4422,21 +4426,21 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>41</v>
@@ -4445,19 +4449,19 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4483,11 +4487,11 @@
         <v>41</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>41</v>
@@ -4505,74 +4509,74 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>41</v>
@@ -4621,50 +4625,50 @@
         <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>41</v>
@@ -4673,22 +4677,22 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>41</v>
@@ -4737,74 +4741,74 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>41</v>
@@ -4853,74 +4857,74 @@
         <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>41</v>
@@ -4969,43 +4973,43 @@
         <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5015,28 +5019,28 @@
         <v>40</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>41</v>
@@ -5085,7 +5089,7 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5097,31 +5101,31 @@
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5131,28 +5135,28 @@
         <v>40</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>41</v>
@@ -5201,7 +5205,7 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5213,27 +5217,27 @@
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5256,19 +5260,19 @@
         <v>41</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>41</v>
@@ -5317,7 +5321,7 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5329,16 +5333,16 @@
         <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
@@ -5346,14 +5350,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5372,19 +5376,19 @@
         <v>41</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>41</v>
@@ -5433,7 +5437,7 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -5445,16 +5449,16 @@
         <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>41</v>
@@ -5462,10 +5466,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5479,7 +5483,7 @@
         <v>40</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>41</v>
@@ -5488,16 +5492,16 @@
         <v>41</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5547,7 +5551,7 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -5559,7 +5563,7 @@
         <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>41</v>
@@ -5568,7 +5572,7 @@
         <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5576,14 +5580,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5599,22 +5603,22 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>41</v>
@@ -5663,7 +5667,7 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -5675,16 +5679,16 @@
         <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
@@ -5692,10 +5696,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5706,7 +5710,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>41</v>
@@ -5718,13 +5722,13 @@
         <v>41</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5775,13 +5779,13 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>41</v>
@@ -5796,7 +5800,7 @@
         <v>41</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>41</v>
@@ -5804,14 +5808,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5830,16 +5834,16 @@
         <v>41</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5889,7 +5893,7 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -5901,7 +5905,7 @@
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>41</v>
@@ -5910,7 +5914,7 @@
         <v>41</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>41</v>
@@ -5918,14 +5922,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5938,25 +5942,25 @@
         <v>41</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>41</v>
@@ -6005,7 +6009,7 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -6017,7 +6021,7 @@
         <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>41</v>
@@ -6026,7 +6030,7 @@
         <v>41</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>41</v>
@@ -6034,10 +6038,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6048,7 +6052,7 @@
         <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>41</v>
@@ -6060,19 +6064,19 @@
         <v>41</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>41</v>
@@ -6121,19 +6125,19 @@
         <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>41</v>
@@ -6142,7 +6146,7 @@
         <v>41</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>41</v>
@@ -6150,10 +6154,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6161,28 +6165,28 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6233,19 +6237,19 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>41</v>
@@ -6254,7 +6258,7 @@
         <v>41</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
@@ -6262,24 +6266,24 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>41</v>
@@ -6288,19 +6292,19 @@
         <v>41</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>41</v>
@@ -6349,28 +6353,28 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>41</v>
@@ -6378,10 +6382,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6395,7 +6399,7 @@
         <v>40</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>41</v>
@@ -6404,16 +6408,16 @@
         <v>41</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6439,11 +6443,11 @@
         <v>41</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>41</v>
@@ -6461,7 +6465,7 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -6473,16 +6477,16 @@
         <v>41</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>41</v>
@@ -6490,10 +6494,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6507,7 +6511,7 @@
         <v>40</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>41</v>
@@ -6516,19 +6520,19 @@
         <v>41</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>41</v>
@@ -6577,7 +6581,7 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -6589,16 +6593,16 @@
         <v>41</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>41</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="378">
   <si>
     <t>Property</t>
   </si>
@@ -474,7 +474,13 @@
     <t>これは、検索、並べ替え、および表示の目的で使用される。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_DiagnosticReportCategory_VS</t>
+    <t>example</t>
+  </si>
+  <si>
+    <t>診断サービスセクションのコード。 / Codes for diagnostic service sections.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
   </si>
   <si>
     <t xml:space="preserve">value:coding.system}
@@ -506,6 +512,9 @@
   </si>
   <si>
     <t>JP_DiagnosticReportCategory_VSの中から「LP7796-8」（Endoscopy（内視鏡））を指定する。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_DiagnosticReportCategory_VS</t>
   </si>
   <si>
     <t>DiagnosticReport.category:endoscopy.id</t>
@@ -1167,9 +1176,6 @@
   </si>
   <si>
     <t>JED Project（https://jedproject.jges.net/）が対象とする検査種別については、指定された質的診断コードを使用することを強く推奨する。</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ConclusionCodesJed_VS</t>
@@ -1550,7 +1556,7 @@
     <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="49.51953125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.07421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="63.30078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="21.17578125" customWidth="true" bestFit="true"/>
@@ -3005,24 +3011,26 @@
         <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y13" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="Z13" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>139</v>
@@ -3043,24 +3051,24 @@
         <v>41</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>139</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>140</v>
@@ -3085,13 +3093,13 @@
         <v>141</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3121,7 +3129,7 @@
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>41</v>
@@ -3157,21 +3165,21 @@
         <v>41</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3194,13 +3202,13 @@
         <v>41</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3251,7 +3259,7 @@
         <v>41</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3272,7 +3280,7 @@
         <v>41</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>41</v>
@@ -3280,10 +3288,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3312,7 +3320,7 @@
         <v>97</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N16" t="s" s="2">
         <v>99</v>
@@ -3353,19 +3361,19 @@
         <v>41</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -3386,7 +3394,7 @@
         <v>41</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>41</v>
@@ -3394,10 +3402,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3420,19 +3428,19 @@
         <v>51</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>41</v>
@@ -3481,7 +3489,7 @@
         <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -3499,10 +3507,10 @@
         <v>41</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>41</v>
@@ -3510,10 +3518,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3536,13 +3544,13 @@
         <v>41</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3593,7 +3601,7 @@
         <v>41</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -3614,7 +3622,7 @@
         <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>41</v>
@@ -3622,10 +3630,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3654,7 +3662,7 @@
         <v>97</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N19" t="s" s="2">
         <v>99</v>
@@ -3695,19 +3703,19 @@
         <v>41</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -3728,7 +3736,7 @@
         <v>41</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>41</v>
@@ -3736,10 +3744,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3765,23 +3773,23 @@
         <v>64</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>41</v>
@@ -3823,7 +3831,7 @@
         <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -3841,10 +3849,10 @@
         <v>41</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>41</v>
@@ -3852,10 +3860,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3878,16 +3886,16 @@
         <v>51</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3937,7 +3945,7 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -3955,10 +3963,10 @@
         <v>41</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>41</v>
@@ -3966,10 +3974,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3995,21 +4003,21 @@
         <v>70</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>41</v>
@@ -4051,7 +4059,7 @@
         <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -4069,10 +4077,10 @@
         <v>41</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>41</v>
@@ -4080,10 +4088,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4106,17 +4114,17 @@
         <v>51</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
@@ -4126,7 +4134,7 @@
         <v>41</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>41</v>
@@ -4165,7 +4173,7 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
@@ -4183,10 +4191,10 @@
         <v>41</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>41</v>
@@ -4194,10 +4202,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4220,19 +4228,19 @@
         <v>51</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>41</v>
@@ -4281,7 +4289,7 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -4299,10 +4307,10 @@
         <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>41</v>
@@ -4310,10 +4318,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4336,19 +4344,19 @@
         <v>51</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>41</v>
@@ -4397,7 +4405,7 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -4415,10 +4423,10 @@
         <v>41</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>41</v>
@@ -4426,14 +4434,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4455,13 +4463,13 @@
         <v>141</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4487,11 +4495,11 @@
         <v>41</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>41</v>
@@ -4509,7 +4517,7 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>50</v>
@@ -4524,28 +4532,28 @@
         <v>62</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4564,19 +4572,19 @@
         <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>41</v>
@@ -4625,7 +4633,7 @@
         <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -4640,28 +4648,28 @@
         <v>62</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4680,19 +4688,19 @@
         <v>51</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>41</v>
@@ -4741,7 +4749,7 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -4756,28 +4764,28 @@
         <v>62</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4796,19 +4804,19 @@
         <v>51</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>41</v>
@@ -4857,7 +4865,7 @@
         <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -4872,28 +4880,28 @@
         <v>62</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4912,19 +4920,19 @@
         <v>51</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>41</v>
@@ -4973,7 +4981,7 @@
         <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -4991,25 +4999,25 @@
         <v>41</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5028,19 +5036,19 @@
         <v>51</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>41</v>
@@ -5089,7 +5097,7 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5104,28 +5112,28 @@
         <v>62</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5144,19 +5152,19 @@
         <v>51</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>41</v>
@@ -5205,7 +5213,7 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5220,24 +5228,24 @@
         <v>62</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5260,19 +5268,19 @@
         <v>41</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>41</v>
@@ -5321,7 +5329,7 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5339,10 +5347,10 @@
         <v>41</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
@@ -5350,14 +5358,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5376,19 +5384,19 @@
         <v>41</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>41</v>
@@ -5437,7 +5445,7 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -5455,10 +5463,10 @@
         <v>41</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>41</v>
@@ -5466,10 +5474,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5492,16 +5500,16 @@
         <v>41</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5551,7 +5559,7 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -5572,7 +5580,7 @@
         <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5580,14 +5588,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5606,19 +5614,19 @@
         <v>51</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>41</v>
@@ -5667,7 +5675,7 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -5685,10 +5693,10 @@
         <v>41</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
@@ -5696,10 +5704,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5722,13 +5730,13 @@
         <v>41</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5779,7 +5787,7 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -5800,7 +5808,7 @@
         <v>41</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>41</v>
@@ -5808,10 +5816,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5840,7 +5848,7 @@
         <v>97</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>99</v>
@@ -5893,7 +5901,7 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -5914,7 +5922,7 @@
         <v>41</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>41</v>
@@ -5922,14 +5930,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5951,10 +5959,10 @@
         <v>96</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="N39" t="s" s="2">
         <v>99</v>
@@ -6009,7 +6017,7 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -6038,10 +6046,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6064,19 +6072,19 @@
         <v>41</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>41</v>
@@ -6125,7 +6133,7 @@
         <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6146,7 +6154,7 @@
         <v>41</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>41</v>
@@ -6154,10 +6162,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6180,13 +6188,13 @@
         <v>51</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6237,7 +6245,7 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>50</v>
@@ -6258,7 +6266,7 @@
         <v>41</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
@@ -6266,14 +6274,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6292,19 +6300,19 @@
         <v>41</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>41</v>
@@ -6353,7 +6361,7 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -6371,10 +6379,10 @@
         <v>41</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>41</v>
@@ -6382,10 +6390,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6411,13 +6419,13 @@
         <v>141</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6443,11 +6451,11 @@
         <v>41</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>366</v>
+        <v>144</v>
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>41</v>
@@ -6465,7 +6473,7 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -6483,10 +6491,10 @@
         <v>41</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>41</v>
@@ -6494,10 +6502,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6520,19 +6528,19 @@
         <v>41</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>41</v>
@@ -6581,7 +6589,7 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -6599,10 +6607,10 @@
         <v>41</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>41</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$55</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="373">
   <si>
     <t>Property</t>
   </si>
@@ -483,7 +483,7 @@
     <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding.system}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -497,27 +497,6 @@
   </si>
   <si>
     <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category:endoscopy</t>
-  </si>
-  <si>
-    <t>endoscopy</t>
-  </si>
-  <si>
-    <t>診断レポートの分野を表すコード。【詳細参照】</t>
-  </si>
-  <si>
-    <t>診断レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード</t>
-  </si>
-  <si>
-    <t>JP_DiagnosticReportCategory_VSの中から「LP7796-8」（Endoscopy（内視鏡））を指定する。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_DiagnosticReportCategory_VS</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category:endoscopy.id</t>
   </si>
   <si>
     <t>DiagnosticReport.category.id</t>
@@ -539,9 +518,6 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>DiagnosticReport.category:endoscopy.extension</t>
-  </si>
-  <si>
     <t>DiagnosticReport.category.extension</t>
   </si>
   <si>
@@ -558,9 +534,6 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>DiagnosticReport.category:endoscopy.coding</t>
-  </si>
-  <si>
     <t>DiagnosticReport.category.coding</t>
   </si>
   <si>
@@ -589,28 +562,16 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>DiagnosticReport.category:endoscopy.coding.id</t>
-  </si>
-  <si>
     <t>DiagnosticReport.category.coding.id</t>
   </si>
   <si>
-    <t>DiagnosticReport.category:endoscopy.coding.extension</t>
-  </si>
-  <si>
     <t>DiagnosticReport.category.coding.extension</t>
   </si>
   <si>
-    <t>DiagnosticReport.category:endoscopy.coding.system</t>
-  </si>
-  <si>
     <t>DiagnosticReport.category.coding.system</t>
   </si>
   <si>
-    <t>用語システムのアイデンティティ / Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>コード内のシンボルの意味を定義するコードシステムの識別。 / The identification of the code system that defines the meaning of the symbol in the code.</t>
+    <t>カテゴリーコードシステムの識別URL</t>
   </si>
   <si>
     <t>uriは、oid（urn：oid：...）またはuuid（urn：uuid：...）である場合があります。OIDとUUIDは、HL7 OIDレジストリへの参照となります。それ以外の場合、URIは、FHIRの特別なURIを定義したHL7のリストから来るか、システムを明確かつ明確に確立する定義を参照する必要があります。 / The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
@@ -619,9 +580,6 @@
     <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://loinc.org</t>
-  </si>
-  <si>
     <t>Coding.system</t>
   </si>
   <si>
@@ -631,9 +589,6 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>DiagnosticReport.category:endoscopy.coding.version</t>
-  </si>
-  <si>
     <t>DiagnosticReport.category.coding.version</t>
   </si>
   <si>
@@ -655,24 +610,15 @@
     <t>./codeSystemVersion</t>
   </si>
   <si>
-    <t>DiagnosticReport.category:endoscopy.coding.code</t>
-  </si>
-  <si>
     <t>DiagnosticReport.category.coding.code</t>
   </si>
   <si>
-    <t>システムによって定義された構文のシンボル / Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>システムによって定義された構文のシンボル。シンボルは、定義されたコードまたはコーディングシステムによって定義された構文の式（例：調整後）である場合があります。 / A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+    <t>カテゴリーコード</t>
   </si>
   <si>
     <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>LP7796-8</t>
-  </si>
-  <si>
     <t>Coding.code</t>
   </si>
   <si>
@@ -682,24 +628,15 @@
     <t>./code</t>
   </si>
   <si>
-    <t>DiagnosticReport.category:endoscopy.coding.display</t>
-  </si>
-  <si>
     <t>DiagnosticReport.category.coding.display</t>
   </si>
   <si>
-    <t>システムによって定義された表現 / Representation defined by the system</t>
-  </si>
-  <si>
-    <t>システムのルールに従って、システム内のコードの意味の表現。 / A representation of the meaning of the code in the system, following the rules of the system.</t>
+    <t>カテゴリー表示名</t>
   </si>
   <si>
     <t>システムを知らない読者のために、コードの人間の読み取り可能な意味を持ち込むことができる必要があります。 / Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
-    <t>内視鏡</t>
-  </si>
-  <si>
     <t>Coding.display</t>
   </si>
   <si>
@@ -707,9 +644,6 @@
   </si>
   <si>
     <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category:endoscopy.coding.userSelected</t>
   </si>
   <si>
     <t>DiagnosticReport.category.coding.userSelected</t>
@@ -740,31 +674,87 @@
     <t>CD.codingRationale</t>
   </si>
   <si>
+    <t>DiagnosticReport.category.text</t>
+  </si>
+  <si>
+    <t>コンセプトの単純なテキスト表現 / Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>データを入力したユーザー、および/またはユーザーの意図された意味を表すユーザーによって見られる/選択/発言された概念の人間の言語表現。 / A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>多くの場合、テキストはコーディングの1つの表示名と同じです。 / Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>用語からのコードは、それらを使用する人間のすべてのニュアンスを使用して、常に正しい意味をキャプチャするとは限りません。または、適切なコードがまったくない場合があります。これらの場合、テキストはソースの完全な意味をキャプチャするために使用されます。 / The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category:endoscopy</t>
+  </si>
+  <si>
+    <t>endoscopy</t>
+  </si>
+  <si>
+    <t>診断レポートの分野を表すコード。【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード</t>
+  </si>
+  <si>
+    <t>JP_DiagnosticReportCategory_VSの中から「LP7796-8」（Endoscopy（内視鏡））を指定する。</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="LP7796-8"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_DiagnosticReportCategory_VS</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category:endoscopy.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category:endoscopy.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category:endoscopy.coding</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category:endoscopy.coding.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category:endoscopy.coding.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category:endoscopy.coding.system</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category:endoscopy.coding.version</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category:endoscopy.coding.code</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category:endoscopy.coding.display</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category:endoscopy.coding.userSelected</t>
+  </si>
+  <si>
     <t>DiagnosticReport.category:endoscopy.text</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.text</t>
-  </si>
-  <si>
-    <t>コンセプトの単純なテキスト表現 / Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>データを入力したユーザー、および/またはユーザーの意図された意味を表すユーザーによって見られる/選択/発言された概念の人間の言語表現。 / A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>多くの場合、テキストはコーディングの1つの表示名と同じです。 / Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>用語からのコードは、それらを使用する人間のすべてのニュアンスを使用して、常に正しい意味をキャプチャするとは限りません。または、適切なコードがまったくない場合があります。これらの場合、テキストはソースの完全な意味をキャプチャするために使用されます。 / The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>DiagnosticReport.code</t>
@@ -1525,7 +1515,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN44"/>
+  <dimension ref="A1:AN55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1559,7 +1549,7 @@
     <col min="25" max="25" width="55.07421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="63.30078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="21.17578125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="12.34765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
@@ -3065,17 +3055,15 @@
         <v>152</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>50</v>
@@ -3087,10 +3075,10 @@
         <v>41</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>154</v>
@@ -3098,9 +3086,7 @@
       <c r="M14" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="N14" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>41</v>
@@ -3125,53 +3111,55 @@
         <v>41</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="Y14" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Z14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AA14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="AN14" t="s" s="2">
-        <v>151</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" hidden="true">
@@ -3179,18 +3167,18 @@
         <v>158</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>41</v>
@@ -3202,15 +3190,17 @@
         <v>41</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>41</v>
@@ -3247,31 +3237,31 @@
         <v>41</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>41</v>
@@ -3280,7 +3270,7 @@
         <v>41</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>41</v>
@@ -3288,14 +3278,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3311,21 +3301,23 @@
         <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="M16" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="N16" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O16" s="2"/>
+      <c r="O16" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>41</v>
       </c>
@@ -3361,19 +3353,19 @@
         <v>41</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="AC16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -3385,16 +3377,16 @@
         <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>41</v>
@@ -3402,7 +3394,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>172</v>
@@ -3416,7 +3408,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>41</v>
@@ -3425,23 +3417,19 @@
         <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>41</v>
       </c>
@@ -3489,28 +3477,28 @@
         <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>41</v>
@@ -3518,21 +3506,21 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>41</v>
@@ -3544,15 +3532,17 @@
         <v>41</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>41</v>
@@ -3589,31 +3579,31 @@
         <v>41</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>41</v>
@@ -3622,7 +3612,7 @@
         <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>41</v>
@@ -3630,21 +3620,21 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>41</v>
@@ -3653,21 +3643,23 @@
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>97</v>
+        <v>175</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>41</v>
       </c>
@@ -3703,40 +3695,40 @@
         <v>41</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>41</v>
@@ -3744,10 +3736,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3755,7 +3747,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>50</v>
@@ -3770,26 +3762,24 @@
         <v>51</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>191</v>
+        <v>41</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>41</v>
@@ -3831,7 +3821,7 @@
         <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -3849,10 +3839,10 @@
         <v>41</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>41</v>
@@ -3860,10 +3850,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3886,18 +3876,18 @@
         <v>51</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>41</v>
       </c>
@@ -3945,7 +3935,7 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -3963,10 +3953,10 @@
         <v>41</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>41</v>
@@ -3974,10 +3964,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3985,7 +3975,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>50</v>
@@ -4000,24 +3990,24 @@
         <v>51</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>208</v>
+        <v>41</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>41</v>
@@ -4059,7 +4049,7 @@
         <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -4077,10 +4067,10 @@
         <v>41</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>41</v>
@@ -4088,10 +4078,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4114,17 +4104,19 @@
         <v>51</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="O23" t="s" s="2">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
@@ -4134,7 +4126,7 @@
         <v>41</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>217</v>
+        <v>41</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>41</v>
@@ -4173,7 +4165,7 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
@@ -4191,10 +4183,10 @@
         <v>41</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>41</v>
@@ -4202,10 +4194,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4228,19 +4220,19 @@
         <v>51</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>223</v>
+        <v>153</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>41</v>
@@ -4289,7 +4281,7 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -4307,10 +4299,10 @@
         <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>41</v>
@@ -4318,18 +4310,20 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="D25" t="s" s="2">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>50</v>
@@ -4344,20 +4338,18 @@
         <v>51</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>41</v>
       </c>
@@ -4366,7 +4358,7 @@
         <v>41</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>41</v>
+        <v>222</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>41</v>
@@ -4381,13 +4373,11 @@
         <v>41</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>41</v>
+        <v>223</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>41</v>
@@ -4405,13 +4395,13 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>237</v>
+        <v>139</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>41</v>
@@ -4423,29 +4413,29 @@
         <v>41</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>238</v>
+        <v>149</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>239</v>
+        <v>150</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>41</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>240</v>
+        <v>152</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>50</v>
@@ -4457,20 +4447,18 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>154</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>41</v>
@@ -4495,11 +4483,13 @@
         <v>41</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="Y26" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Z26" t="s" s="2">
-        <v>246</v>
+        <v>41</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>41</v>
@@ -4517,10 +4507,10 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>240</v>
+        <v>156</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>50</v>
@@ -4529,63 +4519,61 @@
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>247</v>
+        <v>41</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>248</v>
+        <v>41</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>249</v>
+        <v>157</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>250</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>251</v>
+        <v>158</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>252</v>
+        <v>95</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>253</v>
+        <v>96</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>254</v>
+        <v>97</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>255</v>
+        <v>159</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>41</v>
       </c>
@@ -4621,62 +4609,62 @@
         <v>41</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>251</v>
+        <v>162</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>258</v>
+        <v>41</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>260</v>
+        <v>157</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>261</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>262</v>
+        <v>163</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>41</v>
@@ -4688,19 +4676,19 @@
         <v>51</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>264</v>
+        <v>164</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
+        <v>165</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>266</v>
+        <v>166</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>267</v>
+        <v>167</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>41</v>
@@ -4749,13 +4737,13 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>262</v>
+        <v>169</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>41</v>
@@ -4764,28 +4752,28 @@
         <v>62</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>269</v>
+        <v>41</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>270</v>
+        <v>170</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>271</v>
+        <v>171</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>272</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>273</v>
+        <v>172</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>274</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4795,29 +4783,25 @@
         <v>50</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>275</v>
+        <v>153</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>276</v>
+        <v>154</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>41</v>
       </c>
@@ -4865,7 +4849,7 @@
         <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>273</v>
+        <v>156</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -4877,63 +4861,61 @@
         <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>280</v>
+        <v>41</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>281</v>
+        <v>41</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>282</v>
+        <v>157</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>283</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>284</v>
+        <v>228</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>284</v>
+        <v>173</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>285</v>
+        <v>95</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>286</v>
+        <v>96</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>287</v>
+        <v>97</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>288</v>
+        <v>159</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>41</v>
       </c>
@@ -4969,65 +4951,65 @@
         <v>41</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>284</v>
+        <v>162</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>291</v>
+        <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>292</v>
+        <v>157</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>293</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>294</v>
+        <v>229</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>294</v>
+        <v>174</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>295</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>41</v>
@@ -5036,19 +5018,19 @@
         <v>51</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>296</v>
+        <v>64</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>297</v>
+        <v>175</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>298</v>
+        <v>175</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>299</v>
+        <v>176</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>300</v>
+        <v>177</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>41</v>
@@ -5097,13 +5079,13 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>294</v>
+        <v>178</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>41</v>
@@ -5112,38 +5094,38 @@
         <v>62</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>301</v>
+        <v>41</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>302</v>
+        <v>179</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>303</v>
+        <v>180</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>304</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>305</v>
+        <v>230</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>305</v>
+        <v>181</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>306</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>41</v>
@@ -5152,20 +5134,18 @@
         <v>51</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>307</v>
+        <v>153</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>308</v>
+        <v>182</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>309</v>
+        <v>183</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>41</v>
       </c>
@@ -5213,13 +5193,13 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>305</v>
+        <v>185</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>41</v>
@@ -5228,24 +5208,24 @@
         <v>62</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>301</v>
+        <v>41</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>311</v>
+        <v>186</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>303</v>
+        <v>187</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>304</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>312</v>
+        <v>231</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>312</v>
+        <v>188</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5256,7 +5236,7 @@
         <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>41</v>
@@ -5265,22 +5245,20 @@
         <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>313</v>
+        <v>70</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>314</v>
+        <v>189</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>317</v>
+        <v>190</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>41</v>
@@ -5329,13 +5307,13 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>312</v>
+        <v>191</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>41</v>
@@ -5347,10 +5325,10 @@
         <v>41</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>318</v>
+        <v>192</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>260</v>
+        <v>193</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
@@ -5358,21 +5336,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>232</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>319</v>
+        <v>194</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>320</v>
+        <v>41</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>41</v>
@@ -5381,22 +5359,20 @@
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>321</v>
+        <v>153</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>322</v>
+        <v>195</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>324</v>
+        <v>196</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>41</v>
@@ -5445,13 +5421,13 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>319</v>
+        <v>197</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>41</v>
@@ -5463,10 +5439,10 @@
         <v>41</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>325</v>
+        <v>198</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>326</v>
+        <v>199</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>41</v>
@@ -5474,10 +5450,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>327</v>
+        <v>233</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>327</v>
+        <v>200</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5488,30 +5464,32 @@
         <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J35" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="I35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="K35" t="s" s="2">
-        <v>328</v>
+        <v>201</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>329</v>
+        <v>202</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>330</v>
+        <v>203</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>41</v>
       </c>
@@ -5559,13 +5537,13 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>327</v>
+        <v>206</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>41</v>
@@ -5577,10 +5555,10 @@
         <v>41</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>332</v>
+        <v>208</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5588,21 +5566,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>333</v>
+        <v>234</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>333</v>
+        <v>209</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>334</v>
+        <v>41</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>41</v>
@@ -5614,19 +5592,19 @@
         <v>51</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>336</v>
+        <v>210</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>337</v>
+        <v>211</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>338</v>
+        <v>212</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>339</v>
+        <v>213</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>41</v>
@@ -5675,13 +5653,13 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>333</v>
+        <v>214</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>41</v>
@@ -5693,10 +5671,10 @@
         <v>41</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>340</v>
+        <v>215</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
@@ -5704,18 +5682,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>341</v>
+        <v>235</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>341</v>
+        <v>235</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>50</v>
@@ -5727,18 +5705,20 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>161</v>
+        <v>237</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>41</v>
@@ -5763,13 +5743,11 @@
         <v>41</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>41</v>
@@ -5787,10 +5765,10 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>50</v>
@@ -5799,61 +5777,63 @@
         <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>41</v>
+        <v>242</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>164</v>
+        <v>244</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>41</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>342</v>
+        <v>246</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>342</v>
+        <v>246</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>95</v>
+        <v>247</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>96</v>
+        <v>248</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>97</v>
+        <v>249</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>41</v>
       </c>
@@ -5901,74 +5881,74 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>170</v>
+        <v>246</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>41</v>
+        <v>254</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>164</v>
+        <v>255</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>41</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>343</v>
+        <v>257</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>343</v>
+        <v>257</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>344</v>
+        <v>258</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>96</v>
+        <v>259</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>346</v>
+        <v>261</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>99</v>
+        <v>262</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>105</v>
+        <v>263</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>41</v>
@@ -6017,43 +5997,43 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>347</v>
+        <v>257</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>41</v>
+        <v>264</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>93</v>
+        <v>266</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>41</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>348</v>
+        <v>268</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>348</v>
+        <v>268</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>41</v>
+        <v>269</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6063,28 +6043,28 @@
         <v>50</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>349</v>
+        <v>271</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>350</v>
+        <v>272</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>351</v>
+        <v>274</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>41</v>
@@ -6133,7 +6113,7 @@
         <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>348</v>
+        <v>268</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6148,32 +6128,32 @@
         <v>62</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>41</v>
+        <v>275</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>41</v>
+        <v>276</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>352</v>
+        <v>277</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>41</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>353</v>
+        <v>279</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>353</v>
+        <v>279</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>41</v>
+        <v>280</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>50</v>
@@ -6188,16 +6168,20 @@
         <v>51</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>354</v>
+        <v>281</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>355</v>
+        <v>282</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>41</v>
       </c>
@@ -6245,10 +6229,10 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>353</v>
+        <v>279</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>50</v>
@@ -6263,32 +6247,32 @@
         <v>41</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>41</v>
+        <v>286</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>356</v>
+        <v>287</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>41</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>357</v>
+        <v>289</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>357</v>
+        <v>289</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>358</v>
+        <v>290</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>51</v>
@@ -6297,22 +6281,22 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>160</v>
+        <v>291</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>359</v>
+        <v>292</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>360</v>
+        <v>293</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>361</v>
+        <v>294</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>362</v>
+        <v>295</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>41</v>
@@ -6361,13 +6345,13 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>357</v>
+        <v>289</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>41</v>
@@ -6376,28 +6360,28 @@
         <v>62</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>41</v>
+        <v>296</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>363</v>
+        <v>297</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>364</v>
+        <v>298</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>41</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>365</v>
+        <v>300</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>365</v>
+        <v>300</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>41</v>
+        <v>301</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6413,21 +6397,23 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>141</v>
+        <v>302</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>366</v>
+        <v>303</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>367</v>
+        <v>304</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>41</v>
       </c>
@@ -6451,11 +6437,13 @@
         <v>41</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="Y43" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Z43" t="s" s="2">
-        <v>369</v>
+        <v>41</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>41</v>
@@ -6473,7 +6461,7 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>365</v>
+        <v>300</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -6488,24 +6476,24 @@
         <v>62</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>41</v>
+        <v>296</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>363</v>
+        <v>306</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>370</v>
+        <v>298</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>41</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>371</v>
+        <v>307</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>371</v>
+        <v>307</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6519,7 +6507,7 @@
         <v>40</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>41</v>
@@ -6528,19 +6516,19 @@
         <v>41</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>372</v>
+        <v>308</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>373</v>
+        <v>309</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>374</v>
+        <v>310</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>375</v>
+        <v>311</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>376</v>
+        <v>312</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>41</v>
@@ -6589,7 +6577,7 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>371</v>
+        <v>307</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -6607,17 +6595,1277 @@
         <v>41</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="P45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="P47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="P50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="P51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="P53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AM44" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AN44" t="s" s="2">
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="Y54" s="2"/>
+      <c r="Z54" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN44">
+  <autoFilter ref="A1:AN55">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6627,7 +7875,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI43">
+  <conditionalFormatting sqref="A2:AI54">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -152,7 +152,7 @@
     <t>内視鏡を使用して実施された検査、治療に関する診断レポート。</t>
   </si>
   <si>
-    <t>これは単一のレポートをキャプチャすることを目的としており、複数のレポートをカバーする要約情報の表示に使用するのには適していない。たとえば、このリソースは、検査結果の累積レポート形式やシーケンスの詳細な構造化レポート用に作られていない。
+    <t>これは単一のレポートをキャプチャすることを目的としており、複数のレポートをカバーする要約情報の表示に使用するのには適していない。たとえば、このリソースは、検査結果の累積レポート形式やシーケンスの詳細な構造化レポート用に作られていない。  
 【JP Core仕様】DiagnosticReportリソースの共通プロフィール</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="374">
   <si>
     <t>Property</t>
   </si>
@@ -713,14 +713,6 @@
     <t>JP_DiagnosticReportCategory_VSの中から「LP7796-8」（Endoscopy（内視鏡））を指定する。</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="LP7796-8"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_DiagnosticReportCategory_VS</t>
   </si>
   <si>
@@ -742,10 +734,16 @@
     <t>DiagnosticReport.category:endoscopy.coding.system</t>
   </si>
   <si>
+    <t>http://loinc.org</t>
+  </si>
+  <si>
     <t>DiagnosticReport.category:endoscopy.coding.version</t>
   </si>
   <si>
     <t>DiagnosticReport.category:endoscopy.coding.code</t>
+  </si>
+  <si>
+    <t>LP7796-8</t>
   </si>
   <si>
     <t>DiagnosticReport.category:endoscopy.coding.display</t>
@@ -4358,7 +4356,7 @@
         <v>41</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>222</v>
+        <v>41</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>41</v>
@@ -4377,7 +4375,7 @@
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>41</v>
@@ -4424,7 +4422,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>152</v>
@@ -4536,7 +4534,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>158</v>
@@ -4650,7 +4648,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>163</v>
@@ -4766,7 +4764,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>172</v>
@@ -4878,7 +4876,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>173</v>
@@ -4992,7 +4990,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>174</v>
@@ -5037,7 +5035,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>41</v>
+        <v>229</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>41</v>
@@ -5265,7 +5263,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>41</v>
@@ -5336,7 +5334,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>194</v>
@@ -5450,7 +5448,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>200</v>
@@ -5566,7 +5564,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>209</v>
@@ -5682,14 +5680,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5711,13 +5709,13 @@
         <v>141</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5743,11 +5741,11 @@
         <v>41</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>41</v>
@@ -5765,7 +5763,7 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>50</v>
@@ -5780,28 +5778,28 @@
         <v>62</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5820,19 +5818,19 @@
         <v>51</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>41</v>
@@ -5881,7 +5879,7 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -5896,28 +5894,28 @@
         <v>62</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5936,19 +5934,19 @@
         <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>41</v>
@@ -5997,7 +5995,7 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -6012,28 +6010,28 @@
         <v>62</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6052,19 +6050,19 @@
         <v>51</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>41</v>
@@ -6113,7 +6111,7 @@
         <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6128,28 +6126,28 @@
         <v>62</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6168,19 +6166,19 @@
         <v>51</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>41</v>
@@ -6229,7 +6227,7 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6247,25 +6245,25 @@
         <v>41</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6284,19 +6282,19 @@
         <v>51</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>41</v>
@@ -6345,7 +6343,7 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -6360,28 +6358,28 @@
         <v>62</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6400,19 +6398,19 @@
         <v>51</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>41</v>
@@ -6461,7 +6459,7 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -6476,24 +6474,24 @@
         <v>62</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6516,19 +6514,19 @@
         <v>41</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>41</v>
@@ -6577,7 +6575,7 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -6595,10 +6593,10 @@
         <v>41</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>41</v>
@@ -6606,14 +6604,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6632,19 +6630,19 @@
         <v>41</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>41</v>
@@ -6693,7 +6691,7 @@
         <v>41</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -6711,10 +6709,10 @@
         <v>41</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>41</v>
@@ -6722,10 +6720,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6748,16 +6746,16 @@
         <v>41</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6807,7 +6805,7 @@
         <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -6828,7 +6826,7 @@
         <v>41</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>41</v>
@@ -6836,14 +6834,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6862,19 +6860,19 @@
         <v>51</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>41</v>
@@ -6923,7 +6921,7 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -6941,10 +6939,10 @@
         <v>41</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>41</v>
@@ -6952,10 +6950,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7064,10 +7062,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7178,14 +7176,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7207,10 +7205,10 @@
         <v>96</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>99</v>
@@ -7265,7 +7263,7 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -7294,10 +7292,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7323,16 +7321,16 @@
         <v>153</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>41</v>
@@ -7381,7 +7379,7 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -7402,7 +7400,7 @@
         <v>41</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>41</v>
@@ -7410,10 +7408,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7436,13 +7434,13 @@
         <v>51</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7493,7 +7491,7 @@
         <v>41</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>50</v>
@@ -7514,7 +7512,7 @@
         <v>41</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>41</v>
@@ -7522,14 +7520,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7551,16 +7549,16 @@
         <v>153</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>41</v>
@@ -7609,7 +7607,7 @@
         <v>41</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -7627,10 +7625,10 @@
         <v>41</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>41</v>
@@ -7638,10 +7636,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7667,13 +7665,13 @@
         <v>141</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7703,7 +7701,7 @@
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>41</v>
@@ -7721,7 +7719,7 @@
         <v>41</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -7739,10 +7737,10 @@
         <v>41</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>41</v>
@@ -7750,10 +7748,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7776,19 +7774,19 @@
         <v>41</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>41</v>
@@ -7837,7 +7835,7 @@
         <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -7855,10 +7853,10 @@
         <v>41</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>41</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$56</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="414">
   <si>
     <t>Property</t>
   </si>
@@ -130,6 +130,126 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: Workflow Pattern</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t>Report
@@ -1513,7 +1633,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN55"/>
+  <dimension ref="A1:AN56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1524,12 +1644,13 @@
   <cols>
     <col min="1" max="1" width="55.33984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.8125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="62.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="207.65625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1537,6333 +1658,6455 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="55.07421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="63.30078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="12.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="21.421875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="171.66796875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="121.93359375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="I1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="M1" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="N1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="J1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="AM1" t="s" s="2">
+      <c r="K1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="AN1" t="s" s="2">
-        <v>41</v>
+      <c r="L1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>77</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>41</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="P13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AC13" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>151</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>41</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>170</v>
+        <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="P17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="P20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="P25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z25" t="s" s="2">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>139</v>
+        <v>254</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>149</v>
+        <v>255</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>150</v>
+        <v>256</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="D26" t="s" s="2">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>154</v>
+        <v>259</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>41</v>
+        <v>262</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>41</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>170</v>
+        <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="P29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>227</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>228</v>
+        <v>267</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="P32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>41</v>
+        <v>269</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>232</v>
+        <v>81</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>41</v>
+        <v>272</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="B35" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="P35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="P36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="P37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="Y37" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z37" t="s" s="2">
-        <v>242</v>
+        <v>81</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>243</v>
+        <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>246</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>249</v>
+        <v>181</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>41</v>
+        <v>282</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>257</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>268</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>279</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="P41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>41</v>
+        <v>316</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>289</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="P42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>297</v>
+        <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>300</v>
+        <v>329</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>300</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>41</v>
+        <v>342</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="P44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>41</v>
+        <v>337</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>256</v>
+        <v>339</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>41</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>316</v>
+        <v>81</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="P45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>41</v>
+        <v>356</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="P46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>41</v>
+        <v>361</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>330</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>336</v>
+        <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>322</v>
+        <v>368</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>41</v>
+        <v>370</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>153</v>
+        <v>371</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>154</v>
+        <v>372</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="P48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>156</v>
+        <v>369</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>41</v>
+        <v>376</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>157</v>
+        <v>362</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>340</v>
+        <v>135</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>341</v>
+        <v>137</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>342</v>
+        <v>199</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>343</v>
+        <v>202</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>93</v>
+        <v>197</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>41</v>
+        <v>380</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>312</v>
+        <v>139</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>347</v>
+        <v>145</v>
       </c>
       <c r="P51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>348</v>
+        <v>133</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>350</v>
+        <v>193</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="P52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>354</v>
+        <v>81</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>153</v>
+        <v>390</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>359</v>
+        <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>360</v>
+        <v>392</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>41</v>
+        <v>394</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="P54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="Y54" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z54" t="s" s="2">
-        <v>365</v>
+        <v>81</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>368</v>
+        <v>181</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>370</v>
+        <v>403</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>41</v>
+        <v>405</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN55">
+  <autoFilter ref="A1:AN56">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7873,7 +8116,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI54">
+  <conditionalFormatting sqref="A2:AI55">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$55</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="374">
   <si>
     <t>Property</t>
   </si>
@@ -130,126 +130,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Workflow Pattern</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t>Report
@@ -1633,7 +1513,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN56"/>
+  <dimension ref="A1:AN55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1644,13 +1524,12 @@
   <cols>
     <col min="1" max="1" width="55.33984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.8125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="10.953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="62.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="207.65625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1658,6455 +1537,6333 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="55.07421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="63.30078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="12.34765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="21.421875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="171.66796875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="121.93359375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="16.3984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="M1" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="N1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="AK1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="AM1" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="L1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>76</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>77</v>
+      <c r="AN1" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="I6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="M6" t="s" s="2">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
-      </c>
       <c r="N7" t="s" s="2">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O9" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O9" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>156</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>158</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>159</v>
+        <v>70</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="AC13" s="2"/>
       <c r="AD13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>178</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>184</v>
+        <v>41</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>185</v>
+        <v>41</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>186</v>
+        <v>41</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AC14" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AD14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>191</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>194</v>
+        <v>97</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>201</v>
+        <v>41</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>209</v>
+        <v>156</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>210</v>
+        <v>41</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>97</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="P19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>201</v>
+        <v>41</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>193</v>
+        <v>70</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="O23" t="s" s="2">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>241</v>
+        <v>153</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="D25" t="s" s="2">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>193</v>
+        <v>141</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>254</v>
+        <v>139</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>255</v>
+        <v>149</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>256</v>
+        <v>150</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>259</v>
+        <v>154</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="Y26" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Z26" t="s" s="2">
-        <v>262</v>
+        <v>41</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>191</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>194</v>
+        <v>97</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>201</v>
+        <v>41</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>209</v>
+        <v>156</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>210</v>
+        <v>41</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>194</v>
+        <v>97</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="P31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>201</v>
+        <v>41</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>269</v>
+        <v>41</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>193</v>
+        <v>70</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>81</v>
+        <v>232</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>272</v>
+        <v>41</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="O35" t="s" s="2">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="P35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>241</v>
+        <v>153</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="P36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>193</v>
+        <v>141</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>81</v>
+        <v>243</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>81</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>181</v>
+        <v>249</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="P38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="Y38" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Z38" t="s" s="2">
-        <v>282</v>
+        <v>41</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>286</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>297</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>308</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="P41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>316</v>
+        <v>41</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>319</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="P42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>81</v>
+        <v>297</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>329</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>340</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>342</v>
+        <v>41</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="P44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>337</v>
+        <v>41</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>339</v>
+        <v>256</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>340</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>81</v>
+        <v>316</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="P45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>356</v>
+        <v>41</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>361</v>
+        <v>41</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>81</v>
+        <v>330</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="P47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>81</v>
+        <v>336</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>368</v>
+        <v>322</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>370</v>
+        <v>41</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>371</v>
+        <v>153</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>372</v>
+        <v>154</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>369</v>
+        <v>156</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>376</v>
+        <v>41</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>362</v>
+        <v>157</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>194</v>
+        <v>97</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>135</v>
+        <v>340</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>137</v>
+        <v>341</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>199</v>
+        <v>342</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>202</v>
+        <v>343</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>197</v>
+        <v>93</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>380</v>
+        <v>41</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>139</v>
+        <v>312</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>145</v>
+        <v>347</v>
       </c>
       <c r="P51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>133</v>
+        <v>348</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>193</v>
+        <v>350</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>81</v>
+        <v>354</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>390</v>
+        <v>153</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="P53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>81</v>
+        <v>359</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>394</v>
+        <v>41</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>193</v>
+        <v>141</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>395</v>
+        <v>362</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>81</v>
+        <v>365</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>400</v>
+        <v>366</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>181</v>
+        <v>368</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>402</v>
+        <v>369</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="P55" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="Y55" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Z55" t="s" s="2">
-        <v>405</v>
+        <v>41</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="P56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN56">
+  <autoFilter ref="A1:AN55">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8116,7 +7873,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI55">
+  <conditionalFormatting sqref="A2:AI54">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -5231,7 +5231,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>50</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$56</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="414">
   <si>
     <t>Property</t>
   </si>
@@ -130,6 +130,126 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: Workflow Pattern</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t>Report
@@ -1513,7 +1633,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN55"/>
+  <dimension ref="A1:AN56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1524,12 +1644,13 @@
   <cols>
     <col min="1" max="1" width="55.33984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.8125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="62.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="207.65625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1537,6333 +1658,6455 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="55.07421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="63.30078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="12.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="21.421875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="171.66796875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="121.93359375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="I1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="M1" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="N1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="J1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="AM1" t="s" s="2">
+      <c r="K1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="AN1" t="s" s="2">
-        <v>41</v>
+      <c r="L1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>77</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>41</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="P13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AC13" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>151</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>41</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>170</v>
+        <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="P17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="P20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="P25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z25" t="s" s="2">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>139</v>
+        <v>254</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>149</v>
+        <v>255</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>150</v>
+        <v>256</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="D26" t="s" s="2">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>154</v>
+        <v>259</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>41</v>
+        <v>262</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>41</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>170</v>
+        <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="P29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>227</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>228</v>
+        <v>267</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="P32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>41</v>
+        <v>269</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>232</v>
+        <v>81</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>41</v>
+        <v>272</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="B35" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="P35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="P36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="P37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="Y37" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z37" t="s" s="2">
-        <v>242</v>
+        <v>81</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>243</v>
+        <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>246</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>249</v>
+        <v>181</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>41</v>
+        <v>282</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>257</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>268</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>279</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="P41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>41</v>
+        <v>316</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>289</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="P42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>297</v>
+        <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>300</v>
+        <v>329</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>300</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>41</v>
+        <v>342</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="P44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>41</v>
+        <v>337</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>256</v>
+        <v>339</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>41</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>316</v>
+        <v>81</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="P45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>41</v>
+        <v>356</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="P46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>41</v>
+        <v>361</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>330</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>336</v>
+        <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>322</v>
+        <v>368</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>41</v>
+        <v>370</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>153</v>
+        <v>371</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>154</v>
+        <v>372</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="P48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>156</v>
+        <v>369</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>41</v>
+        <v>376</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>157</v>
+        <v>362</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>340</v>
+        <v>135</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>341</v>
+        <v>137</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>342</v>
+        <v>199</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>343</v>
+        <v>202</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>93</v>
+        <v>197</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>41</v>
+        <v>380</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>312</v>
+        <v>139</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>347</v>
+        <v>145</v>
       </c>
       <c r="P51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>348</v>
+        <v>133</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>350</v>
+        <v>193</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="P52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>354</v>
+        <v>81</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>153</v>
+        <v>390</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>359</v>
+        <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>360</v>
+        <v>392</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>41</v>
+        <v>394</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="P54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="Y54" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z54" t="s" s="2">
-        <v>365</v>
+        <v>81</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>368</v>
+        <v>181</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>370</v>
+        <v>403</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>41</v>
+        <v>405</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN55">
+  <autoFilter ref="A1:AN56">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7873,7 +8116,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI54">
+  <conditionalFormatting sqref="A2:AI55">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -277,7 +277,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.2.0-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -277,7 +277,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
